--- a/biology/Botanique/Plancher_rossignol/Plancher_rossignol.xlsx
+++ b/biology/Botanique/Plancher_rossignol/Plancher_rossignol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Un plancher rossignol (鴬張り, uguisubari?) listen, est un type de parquet qui produit un son caractéristique, semblable à un pépiement d'oiseau, au passage d'une personne. 
@@ -514,9 +526,11 @@
           <t>Construction</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les sols ont été fabriqués à partir de planches séchées. Les joints en forme de V à l'envers se déplacent à l'intérieur des panneaux lorsque la pression est appliquée[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sols ont été fabriqués à partir de planches séchées. Les joints en forme de V à l'envers se déplacent à l'intérieur des panneaux lorsque la pression est appliquée.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">鶯 or 鴬 (Uguisu?) se réfère à la bouscarle chanteuse. Le dernier segment 張り (bari?) vient de 張る (haru?), signifiant « étirer ». Le tout signifie donc « le son d'un rossignol causé par les étirements / gonflements / tensions [du sol] ».
 </t>
@@ -576,7 +592,9 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les lieux suivants intègrent des planchers rossignol :
 château de Nijō, Kyoto
@@ -610,7 +628,9 @@
           <t>Influences modernes et sujets connexes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Route de la mélodie à Hokkaido, Wakayama et Gunma
 Route de chant à Anyanag, Gyeonggi, Corée du Sud
